--- a/Data/Combined_Terraform_File_Human_user_query_generated.xlsx
+++ b/Data/Combined_Terraform_File_Human_user_query_generated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madhumita/Documents/Training/PhD /IIITH/NLP/Experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A198D132-75E5-F64A-AF9B-B27F80E68103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{88169969-38ED-6C42-BB06-8AFD850DBCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="320" yWindow="980" windowWidth="27640" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="301">
   <si>
     <t>Category</t>
   </si>
@@ -2656,9 +2656,6 @@
 }</t>
   </si>
   <si>
-    <t>storage_account_aws</t>
-  </si>
-  <si>
     <t># Terraform block with azure provider
 terraform {
   required_providers {
@@ -3791,6 +3788,21 @@
   "userQuery2": "The user intends to create a resource group named 'example-resources' located in 'West Europe'. Additionally, the user wants to create a virtual network named 'testvnet' within this resource group, with an address space of '10.0.0.0/16'.",
   "userQuery3": "The user wants to create a subnet named 'AzureFirewallSubnet' within the 'testvnet' virtual network. This subnet should have an address prefix of '10.0.1.0/24'."
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provider </t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>gcp</t>
+  </si>
+  <si>
+    <t>storage_account_azure</t>
   </si>
 </sst>
 </file>
@@ -4634,1400 +4646,1698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="3" max="3" width="54.5" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="388" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="323" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>297</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E35" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E36" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>297</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
+        <v>297</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E44" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>132</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="372" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
+        <v>298</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
+        <v>298</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E55" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
+        <v>298</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>164</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>170</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>172</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E62" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="E63" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>182</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="272" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>188</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>194</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
+        <v>298</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>300</v>
+      </c>
+      <c r="C70" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" t="s">
+        <v>299</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" t="s">
+        <v>299</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" t="s">
+        <v>299</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="404" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" ht="404" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" t="s">
+        <v>299</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" t="s">
+        <v>299</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" t="s">
+        <v>299</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" t="s">
+        <v>299</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" t="s">
+        <v>299</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" t="s">
+        <v>299</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" t="s">
+        <v>299</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" t="s">
+        <v>299</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" t="s">
+        <v>299</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="255" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" ht="255" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="340" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" ht="340" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" t="s">
+        <v>299</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
